--- a/last/sutudentData.xlsx
+++ b/last/sutudentData.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\学校関係\Python\課題用作成所\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigjim\Desktop\finalproject\extreme-crusader\last\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2741C304-BBBB-4CBD-9BBE-EB9A12333330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C190548-50B6-4B06-9F72-7C17B8E56482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3130" yWindow="0" windowWidth="22170" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" r:id="rId1"/>
-    <sheet name="class" sheetId="2" r:id="rId2"/>
+    <sheet name="course" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Z_1B53F630_166C_43E3_9B02_86FF9A2D6E8E_.wvu.FilterData" localSheetId="0" hidden="1">student!$A$1:$Y$501</definedName>
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="フィルタ 2" guid="{1B53F630-166C-43E3-9B02-86FF9A2D6E8E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="フィルタ 1" guid="{9C52BEA2-AFBA-4FAF-829E-91AB01D5DF7D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="フィルタ 2" guid="{1B53F630-166C-43E3-9B02-86FF9A2D6E8E}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -11794,10 +11794,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>class_id</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -11806,14 +11802,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>class_number</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>class_name</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>classroom_id</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -11846,13 +11834,22 @@
   </si>
   <si>
     <t>070-30-4076</t>
+  </si>
+  <si>
+    <t>course_id</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -11934,7 +11931,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12152,26 +12149,26 @@
   </sheetPr>
   <dimension ref="A1:N999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D402" workbookViewId="0">
-      <selection activeCell="K503" sqref="K503"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="3" width="6.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="3" width="6.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="32.77734375" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" customWidth="1"/>
-    <col min="12" max="12" width="50.77734375" customWidth="1"/>
+    <col min="8" max="8" width="32.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" customWidth="1"/>
+    <col min="12" max="12" width="50.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12209,13 +12206,13 @@
         <v>3916</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>3930</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>3917</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>3918</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -12259,7 +12256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -12303,7 +12300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -12347,7 +12344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -12391,7 +12388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -12435,7 +12432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -12479,7 +12476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -12523,7 +12520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -12567,7 +12564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -12611,7 +12608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -12655,7 +12652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -12699,7 +12696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -12743,7 +12740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -12787,7 +12784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -12831,7 +12828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -12875,7 +12872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -12919,7 +12916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -12963,7 +12960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -13007,7 +13004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -13051,7 +13048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -13095,7 +13092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -13139,7 +13136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -13183,7 +13180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -13227,7 +13224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="18">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -13271,7 +13268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="18">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -13282,7 +13279,7 @@
         <v>217</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>218</v>
@@ -13315,7 +13312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="18">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -13359,7 +13356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="18">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -13403,7 +13400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="18">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -13447,7 +13444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="18">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -13491,7 +13488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" ht="18">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -13535,7 +13532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="18">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -13579,7 +13576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" ht="18">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -13623,7 +13620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" ht="18">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -13667,7 +13664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" ht="18">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -13711,7 +13708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="18">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -13755,7 +13752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="18">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -13799,7 +13796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" ht="18">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -13825,7 +13822,7 @@
         <v>327</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>3927</v>
+        <v>3924</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>328</v>
@@ -13843,7 +13840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" ht="18">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -13887,7 +13884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" ht="18">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -13931,7 +13928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" ht="18">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -13975,7 +13972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" ht="18">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -14019,7 +14016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" ht="18">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -14063,7 +14060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" ht="18">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -14107,7 +14104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" ht="18">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -14151,7 +14148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" ht="18">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -14195,7 +14192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" ht="18">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -14239,7 +14236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" ht="18">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -14283,7 +14280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" ht="18">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -14327,7 +14324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" ht="18">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -14371,7 +14368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" ht="18">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -14415,7 +14412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" ht="18">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -14459,7 +14456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" ht="18">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -14503,7 +14500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" ht="18">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -14532,7 +14529,7 @@
         <v>464</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>3930</v>
+        <v>3927</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>465</v>
@@ -14547,7 +14544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="18">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -14591,7 +14588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" ht="18">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -14635,7 +14632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" ht="18">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -14679,7 +14676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" ht="18">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -14723,7 +14720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" ht="18">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -14767,7 +14764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" ht="18">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -14811,7 +14808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" ht="18">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -14855,7 +14852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" ht="18">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -14899,7 +14896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" ht="18">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -14943,7 +14940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" ht="18">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -14987,7 +14984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:14" ht="18">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -15031,7 +15028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:14" ht="18">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -15075,7 +15072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:14" ht="18">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -15119,7 +15116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:14" ht="18">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -15163,7 +15160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:14" ht="18">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -15207,7 +15204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14" ht="18">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -15251,7 +15248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" ht="18">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -15295,7 +15292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" ht="18">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -15339,7 +15336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" ht="18">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -15383,7 +15380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14" ht="18">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -15427,7 +15424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" ht="18">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -15471,7 +15468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14" ht="18">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -15515,7 +15512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14" ht="18">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -15559,7 +15556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:14" ht="18">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -15603,7 +15600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:14" ht="18">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -15647,7 +15644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:14" ht="18">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -15691,7 +15688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" ht="18">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -15735,7 +15732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14" ht="18">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -15779,7 +15776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" ht="18">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -15823,7 +15820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14" ht="18">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -15867,7 +15864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" ht="18">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -15911,7 +15908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" ht="18">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -15955,7 +15952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" ht="18">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -15999,7 +15996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14" ht="18">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -16043,7 +16040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" ht="18">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -16087,7 +16084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" ht="18">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -16131,7 +16128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14" ht="18">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -16175,7 +16172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" ht="18">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -16219,7 +16216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" ht="18">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -16263,7 +16260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14" ht="18">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -16307,7 +16304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" ht="18">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -16351,7 +16348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" ht="18">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -16395,7 +16392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:14" ht="18">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -16439,7 +16436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:14" ht="18">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -16483,7 +16480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:14" ht="18">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -16527,7 +16524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:14" ht="18">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -16571,7 +16568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:14" ht="18">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -16615,7 +16612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:14" ht="18">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -16659,7 +16656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:14" ht="18">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -16703,7 +16700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:14" ht="18">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -16747,7 +16744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:14" ht="18">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -16791,7 +16788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:14" ht="18">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -16835,7 +16832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:14" ht="18">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -16879,7 +16876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:14" ht="18">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -16923,7 +16920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:14" ht="18">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -16967,7 +16964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:14" ht="18">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -17011,7 +17008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:14" ht="18">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -17055,7 +17052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:14" ht="18">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -17099,7 +17096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:14" ht="18">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -17143,7 +17140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:14" ht="18">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -17187,7 +17184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:14" ht="18">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -17213,7 +17210,7 @@
         <v>971</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>3928</v>
+        <v>3925</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>972</v>
@@ -17231,7 +17228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:14" ht="18">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -17275,7 +17272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:14" ht="18">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -17319,7 +17316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:14" ht="18">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -17363,7 +17360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:14" ht="18">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -17407,7 +17404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:14" ht="18">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -17451,7 +17448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:14" ht="18">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -17495,7 +17492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:14" ht="18">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -17539,7 +17536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:14" ht="18">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -17583,7 +17580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:14" ht="18">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -17627,7 +17624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:14" ht="18">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -17671,7 +17668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:14" ht="18">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -17715,7 +17712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:14" ht="18">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -17759,7 +17756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:14" ht="18">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -17803,7 +17800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:14" ht="18">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -17829,7 +17826,7 @@
         <v>1087</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>3929</v>
+        <v>3926</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>1088</v>
@@ -17847,7 +17844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:14" ht="18">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -17891,7 +17888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:14" ht="18">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -17935,7 +17932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:14" ht="18">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -17979,7 +17976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:14" ht="18">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -18023,7 +18020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:14" ht="18">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -18067,7 +18064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:14" ht="18">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -18111,7 +18108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:14" ht="18">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -18155,7 +18152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:14" ht="18">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -18199,7 +18196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:14" ht="18">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -18243,7 +18240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:14" ht="18">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -18287,7 +18284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:14" ht="18">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -18331,7 +18328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:14" ht="18">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -18375,7 +18372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:14" ht="18">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -18404,7 +18401,7 @@
         <v>1193</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>3931</v>
+        <v>3928</v>
       </c>
       <c r="K142" s="3" t="s">
         <v>1194</v>
@@ -18419,7 +18416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:14" ht="18">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -18463,7 +18460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:14" ht="18">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -18507,7 +18504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:14" ht="18">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -18551,7 +18548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:14" ht="18">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -18595,7 +18592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:14" ht="18">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -18639,7 +18636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:14" ht="18">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -18683,7 +18680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:14" ht="18">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -18727,7 +18724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:14" ht="18">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -18771,7 +18768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:14" ht="18">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -18815,7 +18812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:14" ht="18">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -18859,7 +18856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:14" ht="18">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -18903,7 +18900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:14" ht="18">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -18947,7 +18944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:14" ht="18">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -18991,7 +18988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:14" ht="18">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -19035,7 +19032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:14" ht="18">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -19079,7 +19076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:14" ht="18">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -19123,7 +19120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:14" ht="18">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -19167,7 +19164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:14" ht="18">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -19211,7 +19208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:14" ht="18">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -19255,7 +19252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:14" ht="18">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -19299,7 +19296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:14" ht="18">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -19343,7 +19340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:14" ht="18">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -19387,7 +19384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:14" ht="18">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -19431,7 +19428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:14" ht="18">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -19475,7 +19472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:14" ht="18">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -19519,7 +19516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:14" ht="18">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -19563,7 +19560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:14" ht="18">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -19607,7 +19604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:14" ht="18">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -19651,7 +19648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:14" ht="18">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -19695,7 +19692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:14" ht="18">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -19739,7 +19736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:14" ht="18">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -19783,7 +19780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:14" ht="18">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -19827,7 +19824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:14" ht="18">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -19871,7 +19868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:14" ht="18">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -19915,7 +19912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:14" ht="18">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -19959,7 +19956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:14" ht="18">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -20003,7 +20000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:14" ht="18">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -20047,7 +20044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:14" ht="18">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -20091,7 +20088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:14" ht="18">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -20135,7 +20132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:14" ht="18">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -20179,7 +20176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:14" ht="18">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -20223,7 +20220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:14" ht="18">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -20267,7 +20264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:14" ht="18">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -20311,7 +20308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:14" ht="18">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -20355,7 +20352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:14" ht="18">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -20399,7 +20396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:14" ht="18">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -20443,7 +20440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:14" ht="18">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -20487,7 +20484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:14" ht="18">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -20531,7 +20528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:14" ht="18">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -20575,7 +20572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:14" ht="18">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -20619,7 +20616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:14" ht="18">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -20663,7 +20660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:14" ht="18">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -20707,7 +20704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:14" ht="18">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -20751,7 +20748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:14" ht="18">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -20795,7 +20792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:14" ht="18">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -20839,7 +20836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:14" ht="18">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -20883,7 +20880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:14" ht="18">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -20927,7 +20924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:14" ht="18">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -20971,7 +20968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:14" ht="18">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -21015,7 +21012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:14" ht="18">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -21059,7 +21056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:14" ht="18">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -21103,7 +21100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:14" ht="18">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -21147,7 +21144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:14" ht="18">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -21191,7 +21188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:14" ht="18">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -21235,7 +21232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:14" ht="18">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -21279,7 +21276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:14" ht="18">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -21323,7 +21320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:14" ht="18">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -21367,7 +21364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:14" ht="18">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -21411,7 +21408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:14" ht="18">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -21455,7 +21452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:14" ht="18">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -21499,7 +21496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:14" ht="18">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -21543,7 +21540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:14" ht="18">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -21587,7 +21584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:14" ht="18">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -21631,7 +21628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:14" ht="18">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -21675,7 +21672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:14" ht="18">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -21719,7 +21716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:14" ht="18">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -21763,7 +21760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:14" ht="18">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -21807,7 +21804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:14" ht="18">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -21851,7 +21848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:14" ht="18">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -21895,7 +21892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:14" ht="18">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -21939,7 +21936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:14" ht="18">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -21983,7 +21980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:14" ht="18">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -22027,7 +22024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:14" ht="18">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -22056,7 +22053,7 @@
         <v>1855</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>3923</v>
+        <v>3920</v>
       </c>
       <c r="K225" s="3" t="s">
         <v>1856</v>
@@ -22071,7 +22068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:14" ht="18">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -22115,7 +22112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:14" ht="18">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -22159,7 +22156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:14" ht="18">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -22203,7 +22200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:14" ht="18">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -22247,7 +22244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:14" ht="18">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -22291,7 +22288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:14" ht="18">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -22335,7 +22332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:14" ht="18">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -22379,7 +22376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:14" ht="18">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -22423,7 +22420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:14" ht="18">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -22467,7 +22464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:14" ht="18">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -22511,7 +22508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:14" ht="18">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -22555,7 +22552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:14" ht="18">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -22599,7 +22596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:14" ht="18">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -22643,7 +22640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:14" ht="18">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -22687,7 +22684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:14" ht="18">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -22731,7 +22728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:14" ht="18">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -22775,7 +22772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:14" ht="18">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -22819,7 +22816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:14" ht="18">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -22863,7 +22860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:14" ht="18">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -22907,7 +22904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:14" ht="18">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -22951,7 +22948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:14" ht="18">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -22995,7 +22992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:14" ht="18">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -23039,7 +23036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:14" ht="18">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -23083,7 +23080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:14" ht="18">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -23127,7 +23124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:14" ht="18">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -23171,7 +23168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:14" ht="18">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -23215,7 +23212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:14" ht="18">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -23259,7 +23256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:14" ht="18">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -23303,7 +23300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:14" ht="18">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -23347,7 +23344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:14" ht="18">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -23391,7 +23388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:14" ht="18">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -23435,7 +23432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:14" ht="18">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -23479,7 +23476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:14" ht="18">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -23523,7 +23520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:14" ht="18">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -23567,7 +23564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:14" ht="18">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -23611,7 +23608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:14" ht="18">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -23655,7 +23652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:14" ht="18">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -23699,7 +23696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:14" ht="18">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -23743,7 +23740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:14" ht="18">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -23787,7 +23784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:14" ht="18">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -23831,7 +23828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:14" ht="18">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -23875,7 +23872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:14" ht="18">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -23919,7 +23916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:14" ht="18">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -23963,7 +23960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:14" ht="18">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -24007,7 +24004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:14" ht="18">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -24051,7 +24048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:14" ht="18">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -24095,7 +24092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:14" ht="18">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -24139,7 +24136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:14" ht="18">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -24183,7 +24180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:14" ht="18">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -24227,7 +24224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:14" ht="18">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -24271,7 +24268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:14" ht="18">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -24315,7 +24312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:14" ht="18">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -24359,7 +24356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:14" ht="18">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -24403,7 +24400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:14" ht="18">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -24447,7 +24444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:14" ht="18">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -24491,7 +24488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:14" ht="18">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -24535,7 +24532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:14" ht="18">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -24579,7 +24576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:14" ht="18">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -24623,7 +24620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:14" ht="18">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -24667,7 +24664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:14" ht="18">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -24711,7 +24708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:14" ht="18">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -24755,7 +24752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:14" ht="18">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -24799,7 +24796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:14" ht="18">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -24843,7 +24840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:14" ht="18">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -24887,7 +24884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:14" ht="18">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -24931,7 +24928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:14" ht="18">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -24975,7 +24972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:14" ht="18">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -25019,7 +25016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:14" ht="18">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -25063,7 +25060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:14" ht="18">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -25107,7 +25104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:14" ht="18">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -25151,7 +25148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:14" ht="18">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -25195,7 +25192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:14" ht="18">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -25239,7 +25236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:14" ht="18">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -25283,7 +25280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:14" ht="18">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -25327,7 +25324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:14" ht="18">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -25371,7 +25368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:14" ht="18">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -25415,7 +25412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:14" ht="18">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -25459,7 +25456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:14" ht="18">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -25503,7 +25500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:14" ht="18">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -25547,7 +25544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:14" ht="18">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -25591,7 +25588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:14" ht="18">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -25635,7 +25632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:14" ht="18">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -25679,7 +25676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:14" ht="18">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -25723,7 +25720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:14" ht="18">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -25767,7 +25764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:14" ht="18">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -25811,7 +25808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:14" ht="18">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -25855,7 +25852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:14" ht="18">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -25899,7 +25896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:14" ht="18">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -25928,7 +25925,7 @@
         <v>2527</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>3932</v>
+        <v>3929</v>
       </c>
       <c r="K313" s="3" t="s">
         <v>2528</v>
@@ -25943,7 +25940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:14" ht="18">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -25987,7 +25984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:14" ht="18">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -26031,7 +26028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:14" ht="18">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -26075,7 +26072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:14" ht="18">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -26119,7 +26116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:14" ht="18">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -26163,7 +26160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:14" ht="18">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -26207,7 +26204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:14" ht="18">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -26251,7 +26248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:14" ht="18">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -26295,7 +26292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:14" ht="18">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -26339,7 +26336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:14" ht="18">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -26383,7 +26380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:14" ht="18">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -26427,7 +26424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:14" ht="18">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -26471,7 +26468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:14" ht="18">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -26515,7 +26512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:14" ht="18">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -26559,7 +26556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:14" ht="18">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -26603,7 +26600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:14" ht="18">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -26647,7 +26644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:14" ht="18">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -26691,7 +26688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:14" ht="18">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -26735,7 +26732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:14" ht="18">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -26779,7 +26776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:14" ht="18">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -26823,7 +26820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:14" ht="18">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -26867,7 +26864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:14" ht="18">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -26911,7 +26908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:14" ht="18">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -26955,7 +26952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:14" ht="18">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -26999,7 +26996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:14" ht="18">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -27043,7 +27040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:14" ht="18">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -27087,7 +27084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:14" ht="18">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -27131,7 +27128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:14" ht="18">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -27175,7 +27172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:14" ht="18">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -27219,7 +27216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:14" ht="18">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -27263,7 +27260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:14" ht="18">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -27307,7 +27304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:14" ht="18">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -27351,7 +27348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:14" ht="18">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -27395,7 +27392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:14" ht="18">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -27439,7 +27436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:14" ht="18">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -27483,7 +27480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:14" ht="18">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -27527,7 +27524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:14" ht="18">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -27571,7 +27568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:14" ht="18">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -27615,7 +27612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:14" ht="18">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -27659,7 +27656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:14" ht="18">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -27703,7 +27700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:14" ht="18">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -27732,7 +27729,7 @@
         <v>2845</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>3926</v>
+        <v>3923</v>
       </c>
       <c r="K354" s="3" t="s">
         <v>2846</v>
@@ -27747,7 +27744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:14" ht="18">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -27791,7 +27788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:14" ht="18">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -27835,7 +27832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:14" ht="18">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -27879,7 +27876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:14" ht="18">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -27923,7 +27920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:14" ht="18">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -27967,7 +27964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:14" ht="18">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -28011,7 +28008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:14" ht="18">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -28055,7 +28052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:14" ht="18">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -28099,7 +28096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:14" ht="18">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -28143,7 +28140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:14" ht="18">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -28187,7 +28184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:14" ht="18">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -28231,7 +28228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:14" ht="18">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -28275,7 +28272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:14" ht="18">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -28319,7 +28316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:14" ht="18">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -28351,7 +28348,7 @@
         <v>2942</v>
       </c>
       <c r="K368" s="3" t="s">
-        <v>3924</v>
+        <v>3921</v>
       </c>
       <c r="L368" s="3" t="s">
         <v>2943</v>
@@ -28363,7 +28360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:14" ht="18">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -28407,7 +28404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:14" ht="18">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -28451,7 +28448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:14" ht="18">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -28495,7 +28492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:14" ht="18">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -28539,7 +28536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:14" ht="18">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -28583,7 +28580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:14" ht="18">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -28627,7 +28624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:14" ht="18">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -28671,7 +28668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:14" ht="18">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -28715,7 +28712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:14" ht="18">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -28759,7 +28756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:14" ht="18">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -28803,7 +28800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:14" ht="18">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -28847,7 +28844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:14" ht="18">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -28891,7 +28888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:14" ht="18">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -28935,7 +28932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:14" ht="18">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -28979,7 +28976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:14" ht="18">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -29023,7 +29020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:14" ht="18">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -29067,7 +29064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:14" ht="18">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -29111,7 +29108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:14" ht="18">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -29155,7 +29152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:14" ht="18">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -29199,7 +29196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:14" ht="18">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -29243,7 +29240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:14" ht="18">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -29287,7 +29284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:14" ht="18">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -29331,7 +29328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:14" ht="18">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -29375,7 +29372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:14" ht="18">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -29419,7 +29416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:14" ht="18">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -29463,7 +29460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:14" ht="18">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -29507,7 +29504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:14" ht="18">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -29551,7 +29548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:14" ht="18">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -29595,7 +29592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:14" ht="18">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -29639,7 +29636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:14" ht="18">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -29683,7 +29680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:14" ht="18">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -29727,7 +29724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:14" ht="18">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -29771,7 +29768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:14" ht="18">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -29815,7 +29812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:14" ht="18">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -29859,7 +29856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:14" ht="18">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -29903,7 +29900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:14" ht="18">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -29947,7 +29944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:14" ht="18">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -29991,7 +29988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:14" ht="18">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -30035,7 +30032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:14" ht="18">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -30079,7 +30076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:14" ht="18">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -30123,7 +30120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:14" ht="18">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -30167,7 +30164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:14" ht="18">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -30211,7 +30208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:14" ht="18">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -30255,7 +30252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:14" ht="18">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -30299,7 +30296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:14" ht="18">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -30343,7 +30340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:14" ht="18">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -30387,7 +30384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:14" ht="18">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -30431,7 +30428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:14" ht="18">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -30475,7 +30472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:14" ht="18">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -30519,7 +30516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:14" ht="18">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -30563,7 +30560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:14" ht="18">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -30607,7 +30604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:14" ht="18">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -30651,7 +30648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:14" ht="18">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -30695,7 +30692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:14" ht="18">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -30739,7 +30736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:14" ht="18">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -30783,7 +30780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:14" ht="18">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -30827,7 +30824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:14" ht="18">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -30871,7 +30868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:14" ht="18">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -30915,7 +30912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:14" ht="18">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -30959,7 +30956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:14" ht="18">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -31003,7 +31000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:14" ht="18">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -31047,7 +31044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:14" ht="18">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -31091,7 +31088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:14" ht="18">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -31135,7 +31132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:14" ht="18">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -31179,7 +31176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:14" ht="18">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -31223,7 +31220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:14" ht="18">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -31267,7 +31264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:14" ht="18">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -31311,7 +31308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:14" ht="18">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -31355,7 +31352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:14" ht="18">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -31399,7 +31396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:14" ht="18">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -31443,7 +31440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:14" ht="18">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -31487,7 +31484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:14" ht="18">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -31531,7 +31528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:14" ht="18">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -31575,7 +31572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:14" ht="18">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -31619,7 +31616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:14" ht="18">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -31663,7 +31660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:14" ht="18">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -31707,7 +31704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:14" ht="18">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -31751,7 +31748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:14" ht="18">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -31795,7 +31792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:14" ht="18">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -31839,7 +31836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:14" ht="18">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -31883,7 +31880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:14" ht="18">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -31927,7 +31924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:14" ht="18">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -31971,7 +31968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:14" ht="18">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -32015,7 +32012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:14" ht="18">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -32059,7 +32056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:14" ht="18">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -32103,7 +32100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:14" ht="18">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -32147,7 +32144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:14" ht="18">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -32191,7 +32188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:14" ht="18">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -32235,7 +32232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:14" ht="18">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -32279,7 +32276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:14" ht="18">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -32323,7 +32320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:14" ht="18">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -32367,7 +32364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:14" ht="18">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -32411,7 +32408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:14" ht="18">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -32455,7 +32452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:14" ht="18">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -32499,7 +32496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:14" ht="18">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -32543,7 +32540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:14" ht="18">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -32587,7 +32584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:14" ht="18">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -32631,7 +32628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:14" ht="18">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -32675,7 +32672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:14" ht="18">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -32719,7 +32716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:14" ht="18">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -32763,7 +32760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:14" ht="18">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -32807,7 +32804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:14" ht="18">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -32851,7 +32848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:14" ht="18">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -32895,7 +32892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:14" ht="18">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -32939,7 +32936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:14" ht="18">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -32983,7 +32980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:14" ht="18">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -33027,7 +33024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:14" ht="18">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -33071,7 +33068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:14" ht="18">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -33115,7 +33112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:14" ht="18">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -33159,7 +33156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:14" ht="18">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -33203,7 +33200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:14" ht="18">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -33247,7 +33244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:14" ht="18">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -33291,7 +33288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:14" ht="18">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -33335,7 +33332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:14" ht="18">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -33379,7 +33376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:14" ht="18">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -33423,7 +33420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:14" ht="18">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -33467,7 +33464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:14" ht="18">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -33511,7 +33508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:14" ht="18">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -33555,7 +33552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:14" ht="18">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -33599,7 +33596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:14" ht="18">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -33643,7 +33640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:14" ht="18">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -33687,7 +33684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:14" ht="18">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -33731,7 +33728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:14" ht="18">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -33775,7 +33772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:14" ht="18">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -33819,7 +33816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:14" ht="18">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -33863,7 +33860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:14" ht="18">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -33907,7 +33904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:14" ht="18">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -33951,7 +33948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:14" ht="18">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -33995,7 +33992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:14" ht="18">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -34039,7 +34036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:14" ht="18">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -34083,7 +34080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:14" ht="18">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -34127,7 +34124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:14" ht="18">
       <c r="A500" s="2">
         <v>499</v>
       </c>
@@ -34159,7 +34156,7 @@
         <v>3885</v>
       </c>
       <c r="K500" s="3" t="s">
-        <v>3925</v>
+        <v>3922</v>
       </c>
       <c r="L500" s="3" t="s">
         <v>3886</v>
@@ -34171,7 +34168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:14" ht="18" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:14" ht="18">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -34215,1509 +34212,1509 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" ht="12.5">
       <c r="M502" s="4"/>
     </row>
-    <row r="503" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14" ht="12.5">
       <c r="M503" s="4"/>
     </row>
-    <row r="504" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:14" ht="12.5">
       <c r="M504" s="4"/>
     </row>
-    <row r="505" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14" ht="12.5">
       <c r="M505" s="4"/>
     </row>
-    <row r="506" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:14" ht="12.5">
       <c r="M506" s="4"/>
     </row>
-    <row r="507" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14" ht="12.5">
       <c r="M507" s="4"/>
     </row>
-    <row r="508" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" ht="12.5">
       <c r="M508" s="4"/>
     </row>
-    <row r="509" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14" ht="12.5">
       <c r="M509" s="4"/>
     </row>
-    <row r="510" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:14" ht="12.5">
       <c r="M510" s="4"/>
     </row>
-    <row r="511" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" ht="12.5">
       <c r="M511" s="4"/>
     </row>
-    <row r="512" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" ht="12.5">
       <c r="M512" s="4"/>
     </row>
-    <row r="513" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="13:13" ht="12.5">
       <c r="M513" s="4"/>
     </row>
-    <row r="514" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="13:13" ht="12.5">
       <c r="M514" s="4"/>
     </row>
-    <row r="515" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="13:13" ht="12.5">
       <c r="M515" s="4"/>
     </row>
-    <row r="516" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="13:13" ht="12.5">
       <c r="M516" s="4"/>
     </row>
-    <row r="517" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="13:13" ht="12.5">
       <c r="M517" s="4"/>
     </row>
-    <row r="518" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="13:13" ht="12.5">
       <c r="M518" s="4"/>
     </row>
-    <row r="519" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="13:13" ht="12.5">
       <c r="M519" s="4"/>
     </row>
-    <row r="520" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="13:13" ht="12.5">
       <c r="M520" s="4"/>
     </row>
-    <row r="521" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="13:13" ht="12.5">
       <c r="M521" s="4"/>
     </row>
-    <row r="522" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="13:13" ht="12.5">
       <c r="M522" s="4"/>
     </row>
-    <row r="523" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="13:13" ht="12.5">
       <c r="M523" s="4"/>
     </row>
-    <row r="524" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="13:13" ht="12.5">
       <c r="M524" s="4"/>
     </row>
-    <row r="525" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="13:13" ht="12.5">
       <c r="M525" s="4"/>
     </row>
-    <row r="526" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="13:13" ht="12.5">
       <c r="M526" s="4"/>
     </row>
-    <row r="527" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="13:13" ht="12.5">
       <c r="M527" s="4"/>
     </row>
-    <row r="528" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="13:13" ht="12.5">
       <c r="M528" s="4"/>
     </row>
-    <row r="529" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="13:13" ht="12.5">
       <c r="M529" s="4"/>
     </row>
-    <row r="530" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="13:13" ht="12.5">
       <c r="M530" s="4"/>
     </row>
-    <row r="531" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="13:13" ht="12.5">
       <c r="M531" s="4"/>
     </row>
-    <row r="532" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="13:13" ht="12.5">
       <c r="M532" s="4"/>
     </row>
-    <row r="533" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="13:13" ht="12.5">
       <c r="M533" s="4"/>
     </row>
-    <row r="534" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="13:13" ht="12.5">
       <c r="M534" s="4"/>
     </row>
-    <row r="535" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="13:13" ht="12.5">
       <c r="M535" s="4"/>
     </row>
-    <row r="536" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="13:13" ht="12.5">
       <c r="M536" s="4"/>
     </row>
-    <row r="537" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="13:13" ht="12.5">
       <c r="M537" s="4"/>
     </row>
-    <row r="538" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="13:13" ht="12.5">
       <c r="M538" s="4"/>
     </row>
-    <row r="539" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="13:13" ht="12.5">
       <c r="M539" s="4"/>
     </row>
-    <row r="540" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="13:13" ht="12.5">
       <c r="M540" s="4"/>
     </row>
-    <row r="541" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="13:13" ht="12.5">
       <c r="M541" s="4"/>
     </row>
-    <row r="542" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="13:13" ht="12.5">
       <c r="M542" s="4"/>
     </row>
-    <row r="543" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="13:13" ht="12.5">
       <c r="M543" s="4"/>
     </row>
-    <row r="544" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="13:13" ht="12.5">
       <c r="M544" s="4"/>
     </row>
-    <row r="545" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="13:13" ht="12.5">
       <c r="M545" s="4"/>
     </row>
-    <row r="546" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="13:13" ht="12.5">
       <c r="M546" s="4"/>
     </row>
-    <row r="547" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="13:13" ht="12.5">
       <c r="M547" s="4"/>
     </row>
-    <row r="548" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="13:13" ht="12.5">
       <c r="M548" s="4"/>
     </row>
-    <row r="549" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="13:13" ht="12.5">
       <c r="M549" s="4"/>
     </row>
-    <row r="550" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="13:13" ht="12.5">
       <c r="M550" s="4"/>
     </row>
-    <row r="551" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="13:13" ht="12.5">
       <c r="M551" s="4"/>
     </row>
-    <row r="552" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="13:13" ht="12.5">
       <c r="M552" s="4"/>
     </row>
-    <row r="553" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="13:13" ht="12.5">
       <c r="M553" s="4"/>
     </row>
-    <row r="554" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="13:13" ht="12.5">
       <c r="M554" s="4"/>
     </row>
-    <row r="555" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="13:13" ht="12.5">
       <c r="M555" s="4"/>
     </row>
-    <row r="556" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="13:13" ht="12.5">
       <c r="M556" s="4"/>
     </row>
-    <row r="557" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="13:13" ht="12.5">
       <c r="M557" s="4"/>
     </row>
-    <row r="558" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="13:13" ht="12.5">
       <c r="M558" s="4"/>
     </row>
-    <row r="559" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="13:13" ht="12.5">
       <c r="M559" s="4"/>
     </row>
-    <row r="560" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="13:13" ht="12.5">
       <c r="M560" s="4"/>
     </row>
-    <row r="561" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="13:13" ht="12.5">
       <c r="M561" s="4"/>
     </row>
-    <row r="562" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="13:13" ht="12.5">
       <c r="M562" s="4"/>
     </row>
-    <row r="563" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="13:13" ht="12.5">
       <c r="M563" s="4"/>
     </row>
-    <row r="564" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="13:13" ht="12.5">
       <c r="M564" s="4"/>
     </row>
-    <row r="565" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="13:13" ht="12.5">
       <c r="M565" s="4"/>
     </row>
-    <row r="566" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="13:13" ht="12.5">
       <c r="M566" s="4"/>
     </row>
-    <row r="567" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="13:13" ht="12.5">
       <c r="M567" s="4"/>
     </row>
-    <row r="568" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="13:13" ht="12.5">
       <c r="M568" s="4"/>
     </row>
-    <row r="569" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="13:13" ht="12.5">
       <c r="M569" s="4"/>
     </row>
-    <row r="570" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="13:13" ht="12.5">
       <c r="M570" s="4"/>
     </row>
-    <row r="571" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="13:13" ht="12.5">
       <c r="M571" s="4"/>
     </row>
-    <row r="572" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="13:13" ht="12.5">
       <c r="M572" s="4"/>
     </row>
-    <row r="573" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="13:13" ht="12.5">
       <c r="M573" s="4"/>
     </row>
-    <row r="574" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="13:13" ht="12.5">
       <c r="M574" s="4"/>
     </row>
-    <row r="575" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="13:13" ht="12.5">
       <c r="M575" s="4"/>
     </row>
-    <row r="576" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="13:13" ht="12.5">
       <c r="M576" s="4"/>
     </row>
-    <row r="577" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="13:13" ht="12.5">
       <c r="M577" s="4"/>
     </row>
-    <row r="578" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="13:13" ht="12.5">
       <c r="M578" s="4"/>
     </row>
-    <row r="579" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="13:13" ht="12.5">
       <c r="M579" s="4"/>
     </row>
-    <row r="580" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="13:13" ht="12.5">
       <c r="M580" s="4"/>
     </row>
-    <row r="581" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="13:13" ht="12.5">
       <c r="M581" s="4"/>
     </row>
-    <row r="582" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="13:13" ht="12.5">
       <c r="M582" s="4"/>
     </row>
-    <row r="583" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="13:13" ht="12.5">
       <c r="M583" s="4"/>
     </row>
-    <row r="584" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="13:13" ht="12.5">
       <c r="M584" s="4"/>
     </row>
-    <row r="585" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="13:13" ht="12.5">
       <c r="M585" s="4"/>
     </row>
-    <row r="586" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="13:13" ht="12.5">
       <c r="M586" s="4"/>
     </row>
-    <row r="587" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="13:13" ht="12.5">
       <c r="M587" s="4"/>
     </row>
-    <row r="588" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="13:13" ht="12.5">
       <c r="M588" s="4"/>
     </row>
-    <row r="589" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="13:13" ht="12.5">
       <c r="M589" s="4"/>
     </row>
-    <row r="590" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="13:13" ht="12.5">
       <c r="M590" s="4"/>
     </row>
-    <row r="591" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="13:13" ht="12.5">
       <c r="M591" s="4"/>
     </row>
-    <row r="592" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="13:13" ht="12.5">
       <c r="M592" s="4"/>
     </row>
-    <row r="593" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="13:13" ht="12.5">
       <c r="M593" s="4"/>
     </row>
-    <row r="594" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="13:13" ht="12.5">
       <c r="M594" s="4"/>
     </row>
-    <row r="595" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="13:13" ht="12.5">
       <c r="M595" s="4"/>
     </row>
-    <row r="596" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="13:13" ht="12.5">
       <c r="M596" s="4"/>
     </row>
-    <row r="597" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="13:13" ht="12.5">
       <c r="M597" s="4"/>
     </row>
-    <row r="598" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="13:13" ht="12.5">
       <c r="M598" s="4"/>
     </row>
-    <row r="599" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="13:13" ht="12.5">
       <c r="M599" s="4"/>
     </row>
-    <row r="600" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="13:13" ht="12.5">
       <c r="M600" s="4"/>
     </row>
-    <row r="601" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="13:13" ht="12.5">
       <c r="M601" s="4"/>
     </row>
-    <row r="602" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="13:13" ht="12.5">
       <c r="M602" s="4"/>
     </row>
-    <row r="603" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="13:13" ht="12.5">
       <c r="M603" s="4"/>
     </row>
-    <row r="604" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="13:13" ht="12.5">
       <c r="M604" s="4"/>
     </row>
-    <row r="605" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="13:13" ht="12.5">
       <c r="M605" s="4"/>
     </row>
-    <row r="606" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="13:13" ht="12.5">
       <c r="M606" s="4"/>
     </row>
-    <row r="607" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="13:13" ht="12.5">
       <c r="M607" s="4"/>
     </row>
-    <row r="608" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="13:13" ht="12.5">
       <c r="M608" s="4"/>
     </row>
-    <row r="609" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="13:13" ht="12.5">
       <c r="M609" s="4"/>
     </row>
-    <row r="610" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="13:13" ht="12.5">
       <c r="M610" s="4"/>
     </row>
-    <row r="611" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="13:13" ht="12.5">
       <c r="M611" s="4"/>
     </row>
-    <row r="612" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="13:13" ht="12.5">
       <c r="M612" s="4"/>
     </row>
-    <row r="613" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="13:13" ht="12.5">
       <c r="M613" s="4"/>
     </row>
-    <row r="614" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="13:13" ht="12.5">
       <c r="M614" s="4"/>
     </row>
-    <row r="615" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="13:13" ht="12.5">
       <c r="M615" s="4"/>
     </row>
-    <row r="616" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="13:13" ht="12.5">
       <c r="M616" s="4"/>
     </row>
-    <row r="617" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="13:13" ht="12.5">
       <c r="M617" s="4"/>
     </row>
-    <row r="618" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="13:13" ht="12.5">
       <c r="M618" s="4"/>
     </row>
-    <row r="619" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="13:13" ht="12.5">
       <c r="M619" s="4"/>
     </row>
-    <row r="620" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="13:13" ht="12.5">
       <c r="M620" s="4"/>
     </row>
-    <row r="621" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="13:13" ht="12.5">
       <c r="M621" s="4"/>
     </row>
-    <row r="622" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="13:13" ht="12.5">
       <c r="M622" s="4"/>
     </row>
-    <row r="623" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="13:13" ht="12.5">
       <c r="M623" s="4"/>
     </row>
-    <row r="624" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="13:13" ht="12.5">
       <c r="M624" s="4"/>
     </row>
-    <row r="625" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="13:13" ht="12.5">
       <c r="M625" s="4"/>
     </row>
-    <row r="626" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="13:13" ht="12.5">
       <c r="M626" s="4"/>
     </row>
-    <row r="627" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="13:13" ht="12.5">
       <c r="M627" s="4"/>
     </row>
-    <row r="628" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="13:13" ht="12.5">
       <c r="M628" s="4"/>
     </row>
-    <row r="629" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="13:13" ht="12.5">
       <c r="M629" s="4"/>
     </row>
-    <row r="630" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="13:13" ht="12.5">
       <c r="M630" s="4"/>
     </row>
-    <row r="631" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="13:13" ht="12.5">
       <c r="M631" s="4"/>
     </row>
-    <row r="632" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="13:13" ht="12.5">
       <c r="M632" s="4"/>
     </row>
-    <row r="633" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="13:13" ht="12.5">
       <c r="M633" s="4"/>
     </row>
-    <row r="634" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="13:13" ht="12.5">
       <c r="M634" s="4"/>
     </row>
-    <row r="635" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="13:13" ht="12.5">
       <c r="M635" s="4"/>
     </row>
-    <row r="636" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="13:13" ht="12.5">
       <c r="M636" s="4"/>
     </row>
-    <row r="637" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="13:13" ht="12.5">
       <c r="M637" s="4"/>
     </row>
-    <row r="638" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="13:13" ht="12.5">
       <c r="M638" s="4"/>
     </row>
-    <row r="639" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="13:13" ht="12.5">
       <c r="M639" s="4"/>
     </row>
-    <row r="640" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="13:13" ht="12.5">
       <c r="M640" s="4"/>
     </row>
-    <row r="641" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="13:13" ht="12.5">
       <c r="M641" s="4"/>
     </row>
-    <row r="642" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="13:13" ht="12.5">
       <c r="M642" s="4"/>
     </row>
-    <row r="643" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="13:13" ht="12.5">
       <c r="M643" s="4"/>
     </row>
-    <row r="644" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="13:13" ht="12.5">
       <c r="M644" s="4"/>
     </row>
-    <row r="645" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="13:13" ht="12.5">
       <c r="M645" s="4"/>
     </row>
-    <row r="646" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="13:13" ht="12.5">
       <c r="M646" s="4"/>
     </row>
-    <row r="647" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="13:13" ht="12.5">
       <c r="M647" s="4"/>
     </row>
-    <row r="648" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="13:13" ht="12.5">
       <c r="M648" s="4"/>
     </row>
-    <row r="649" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="13:13" ht="12.5">
       <c r="M649" s="4"/>
     </row>
-    <row r="650" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="13:13" ht="12.5">
       <c r="M650" s="4"/>
     </row>
-    <row r="651" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="13:13" ht="12.5">
       <c r="M651" s="4"/>
     </row>
-    <row r="652" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="13:13" ht="12.5">
       <c r="M652" s="4"/>
     </row>
-    <row r="653" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="13:13" ht="12.5">
       <c r="M653" s="4"/>
     </row>
-    <row r="654" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="13:13" ht="12.5">
       <c r="M654" s="4"/>
     </row>
-    <row r="655" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="13:13" ht="12.5">
       <c r="M655" s="4"/>
     </row>
-    <row r="656" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="13:13" ht="12.5">
       <c r="M656" s="4"/>
     </row>
-    <row r="657" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="13:13" ht="12.5">
       <c r="M657" s="4"/>
     </row>
-    <row r="658" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="13:13" ht="12.5">
       <c r="M658" s="4"/>
     </row>
-    <row r="659" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="13:13" ht="12.5">
       <c r="M659" s="4"/>
     </row>
-    <row r="660" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="13:13" ht="12.5">
       <c r="M660" s="4"/>
     </row>
-    <row r="661" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="13:13" ht="12.5">
       <c r="M661" s="4"/>
     </row>
-    <row r="662" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="13:13" ht="12.5">
       <c r="M662" s="4"/>
     </row>
-    <row r="663" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="13:13" ht="12.5">
       <c r="M663" s="4"/>
     </row>
-    <row r="664" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="13:13" ht="12.5">
       <c r="M664" s="4"/>
     </row>
-    <row r="665" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="13:13" ht="12.5">
       <c r="M665" s="4"/>
     </row>
-    <row r="666" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="13:13" ht="12.5">
       <c r="M666" s="4"/>
     </row>
-    <row r="667" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="13:13" ht="12.5">
       <c r="M667" s="4"/>
     </row>
-    <row r="668" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="13:13" ht="12.5">
       <c r="M668" s="4"/>
     </row>
-    <row r="669" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="13:13" ht="12.5">
       <c r="M669" s="4"/>
     </row>
-    <row r="670" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="13:13" ht="12.5">
       <c r="M670" s="4"/>
     </row>
-    <row r="671" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="13:13" ht="12.5">
       <c r="M671" s="4"/>
     </row>
-    <row r="672" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="13:13" ht="12.5">
       <c r="M672" s="4"/>
     </row>
-    <row r="673" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="13:13" ht="12.5">
       <c r="M673" s="4"/>
     </row>
-    <row r="674" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="13:13" ht="12.5">
       <c r="M674" s="4"/>
     </row>
-    <row r="675" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="13:13" ht="12.5">
       <c r="M675" s="4"/>
     </row>
-    <row r="676" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="13:13" ht="12.5">
       <c r="M676" s="4"/>
     </row>
-    <row r="677" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="13:13" ht="12.5">
       <c r="M677" s="4"/>
     </row>
-    <row r="678" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="13:13" ht="12.5">
       <c r="M678" s="4"/>
     </row>
-    <row r="679" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="13:13" ht="12.5">
       <c r="M679" s="4"/>
     </row>
-    <row r="680" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="13:13" ht="12.5">
       <c r="M680" s="4"/>
     </row>
-    <row r="681" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="13:13" ht="12.5">
       <c r="M681" s="4"/>
     </row>
-    <row r="682" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="13:13" ht="12.5">
       <c r="M682" s="4"/>
     </row>
-    <row r="683" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="13:13" ht="12.5">
       <c r="M683" s="4"/>
     </row>
-    <row r="684" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="13:13" ht="12.5">
       <c r="M684" s="4"/>
     </row>
-    <row r="685" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="13:13" ht="12.5">
       <c r="M685" s="4"/>
     </row>
-    <row r="686" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="13:13" ht="12.5">
       <c r="M686" s="4"/>
     </row>
-    <row r="687" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="13:13" ht="12.5">
       <c r="M687" s="4"/>
     </row>
-    <row r="688" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="13:13" ht="12.5">
       <c r="M688" s="4"/>
     </row>
-    <row r="689" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="13:13" ht="12.5">
       <c r="M689" s="4"/>
     </row>
-    <row r="690" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="13:13" ht="12.5">
       <c r="M690" s="4"/>
     </row>
-    <row r="691" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="13:13" ht="12.5">
       <c r="M691" s="4"/>
     </row>
-    <row r="692" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="13:13" ht="12.5">
       <c r="M692" s="4"/>
     </row>
-    <row r="693" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="13:13" ht="12.5">
       <c r="M693" s="4"/>
     </row>
-    <row r="694" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="13:13" ht="12.5">
       <c r="M694" s="4"/>
     </row>
-    <row r="695" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="13:13" ht="12.5">
       <c r="M695" s="4"/>
     </row>
-    <row r="696" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="13:13" ht="12.5">
       <c r="M696" s="4"/>
     </row>
-    <row r="697" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="13:13" ht="12.5">
       <c r="M697" s="4"/>
     </row>
-    <row r="698" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="13:13" ht="12.5">
       <c r="M698" s="4"/>
     </row>
-    <row r="699" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="13:13" ht="12.5">
       <c r="M699" s="4"/>
     </row>
-    <row r="700" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="13:13" ht="12.5">
       <c r="M700" s="4"/>
     </row>
-    <row r="701" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="13:13" ht="12.5">
       <c r="M701" s="4"/>
     </row>
-    <row r="702" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="13:13" ht="12.5">
       <c r="M702" s="4"/>
     </row>
-    <row r="703" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="13:13" ht="12.5">
       <c r="M703" s="4"/>
     </row>
-    <row r="704" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="13:13" ht="12.5">
       <c r="M704" s="4"/>
     </row>
-    <row r="705" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="13:13" ht="12.5">
       <c r="M705" s="4"/>
     </row>
-    <row r="706" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="13:13" ht="12.5">
       <c r="M706" s="4"/>
     </row>
-    <row r="707" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="13:13" ht="12.5">
       <c r="M707" s="4"/>
     </row>
-    <row r="708" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="13:13" ht="12.5">
       <c r="M708" s="4"/>
     </row>
-    <row r="709" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="13:13" ht="12.5">
       <c r="M709" s="4"/>
     </row>
-    <row r="710" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="13:13" ht="12.5">
       <c r="M710" s="4"/>
     </row>
-    <row r="711" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="13:13" ht="12.5">
       <c r="M711" s="4"/>
     </row>
-    <row r="712" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="13:13" ht="12.5">
       <c r="M712" s="4"/>
     </row>
-    <row r="713" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="13:13" ht="12.5">
       <c r="M713" s="4"/>
     </row>
-    <row r="714" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="13:13" ht="12.5">
       <c r="M714" s="4"/>
     </row>
-    <row r="715" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="13:13" ht="12.5">
       <c r="M715" s="4"/>
     </row>
-    <row r="716" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="13:13" ht="12.5">
       <c r="M716" s="4"/>
     </row>
-    <row r="717" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="13:13" ht="12.5">
       <c r="M717" s="4"/>
     </row>
-    <row r="718" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="13:13" ht="12.5">
       <c r="M718" s="4"/>
     </row>
-    <row r="719" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="13:13" ht="12.5">
       <c r="M719" s="4"/>
     </row>
-    <row r="720" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="13:13" ht="12.5">
       <c r="M720" s="4"/>
     </row>
-    <row r="721" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="13:13" ht="12.5">
       <c r="M721" s="4"/>
     </row>
-    <row r="722" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="13:13" ht="12.5">
       <c r="M722" s="4"/>
     </row>
-    <row r="723" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="13:13" ht="12.5">
       <c r="M723" s="4"/>
     </row>
-    <row r="724" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="13:13" ht="12.5">
       <c r="M724" s="4"/>
     </row>
-    <row r="725" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="13:13" ht="12.5">
       <c r="M725" s="4"/>
     </row>
-    <row r="726" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="13:13" ht="12.5">
       <c r="M726" s="4"/>
     </row>
-    <row r="727" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="13:13" ht="12.5">
       <c r="M727" s="4"/>
     </row>
-    <row r="728" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="13:13" ht="12.5">
       <c r="M728" s="4"/>
     </row>
-    <row r="729" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="13:13" ht="12.5">
       <c r="M729" s="4"/>
     </row>
-    <row r="730" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="13:13" ht="12.5">
       <c r="M730" s="4"/>
     </row>
-    <row r="731" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="13:13" ht="12.5">
       <c r="M731" s="4"/>
     </row>
-    <row r="732" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="13:13" ht="12.5">
       <c r="M732" s="4"/>
     </row>
-    <row r="733" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="13:13" ht="12.5">
       <c r="M733" s="4"/>
     </row>
-    <row r="734" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="13:13" ht="12.5">
       <c r="M734" s="4"/>
     </row>
-    <row r="735" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="13:13" ht="12.5">
       <c r="M735" s="4"/>
     </row>
-    <row r="736" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="13:13" ht="12.5">
       <c r="M736" s="4"/>
     </row>
-    <row r="737" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="13:13" ht="12.5">
       <c r="M737" s="4"/>
     </row>
-    <row r="738" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="13:13" ht="12.5">
       <c r="M738" s="4"/>
     </row>
-    <row r="739" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="13:13" ht="12.5">
       <c r="M739" s="4"/>
     </row>
-    <row r="740" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="13:13" ht="12.5">
       <c r="M740" s="4"/>
     </row>
-    <row r="741" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="13:13" ht="12.5">
       <c r="M741" s="4"/>
     </row>
-    <row r="742" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="13:13" ht="12.5">
       <c r="M742" s="4"/>
     </row>
-    <row r="743" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="13:13" ht="12.5">
       <c r="M743" s="4"/>
     </row>
-    <row r="744" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="13:13" ht="12.5">
       <c r="M744" s="4"/>
     </row>
-    <row r="745" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="13:13" ht="12.5">
       <c r="M745" s="4"/>
     </row>
-    <row r="746" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="13:13" ht="12.5">
       <c r="M746" s="4"/>
     </row>
-    <row r="747" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="13:13" ht="12.5">
       <c r="M747" s="4"/>
     </row>
-    <row r="748" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="13:13" ht="12.5">
       <c r="M748" s="4"/>
     </row>
-    <row r="749" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="13:13" ht="12.5">
       <c r="M749" s="4"/>
     </row>
-    <row r="750" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="13:13" ht="12.5">
       <c r="M750" s="4"/>
     </row>
-    <row r="751" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="13:13" ht="12.5">
       <c r="M751" s="4"/>
     </row>
-    <row r="752" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="13:13" ht="12.5">
       <c r="M752" s="4"/>
     </row>
-    <row r="753" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="13:13" ht="12.5">
       <c r="M753" s="4"/>
     </row>
-    <row r="754" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="13:13" ht="12.5">
       <c r="M754" s="4"/>
     </row>
-    <row r="755" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="13:13" ht="12.5">
       <c r="M755" s="4"/>
     </row>
-    <row r="756" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="13:13" ht="12.5">
       <c r="M756" s="4"/>
     </row>
-    <row r="757" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="13:13" ht="12.5">
       <c r="M757" s="4"/>
     </row>
-    <row r="758" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="13:13" ht="12.5">
       <c r="M758" s="4"/>
     </row>
-    <row r="759" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="13:13" ht="12.5">
       <c r="M759" s="4"/>
     </row>
-    <row r="760" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="13:13" ht="12.5">
       <c r="M760" s="4"/>
     </row>
-    <row r="761" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="13:13" ht="12.5">
       <c r="M761" s="4"/>
     </row>
-    <row r="762" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="13:13" ht="12.5">
       <c r="M762" s="4"/>
     </row>
-    <row r="763" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="13:13" ht="12.5">
       <c r="M763" s="4"/>
     </row>
-    <row r="764" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="13:13" ht="12.5">
       <c r="M764" s="4"/>
     </row>
-    <row r="765" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="13:13" ht="12.5">
       <c r="M765" s="4"/>
     </row>
-    <row r="766" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="13:13" ht="12.5">
       <c r="M766" s="4"/>
     </row>
-    <row r="767" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="13:13" ht="12.5">
       <c r="M767" s="4"/>
     </row>
-    <row r="768" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="13:13" ht="12.5">
       <c r="M768" s="4"/>
     </row>
-    <row r="769" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="13:13" ht="12.5">
       <c r="M769" s="4"/>
     </row>
-    <row r="770" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="13:13" ht="12.5">
       <c r="M770" s="4"/>
     </row>
-    <row r="771" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="13:13" ht="12.5">
       <c r="M771" s="4"/>
     </row>
-    <row r="772" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="13:13" ht="12.5">
       <c r="M772" s="4"/>
     </row>
-    <row r="773" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="13:13" ht="12.5">
       <c r="M773" s="4"/>
     </row>
-    <row r="774" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="13:13" ht="12.5">
       <c r="M774" s="4"/>
     </row>
-    <row r="775" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="13:13" ht="12.5">
       <c r="M775" s="4"/>
     </row>
-    <row r="776" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="13:13" ht="12.5">
       <c r="M776" s="4"/>
     </row>
-    <row r="777" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="13:13" ht="12.5">
       <c r="M777" s="4"/>
     </row>
-    <row r="778" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="13:13" ht="12.5">
       <c r="M778" s="4"/>
     </row>
-    <row r="779" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="13:13" ht="12.5">
       <c r="M779" s="4"/>
     </row>
-    <row r="780" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="13:13" ht="12.5">
       <c r="M780" s="4"/>
     </row>
-    <row r="781" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="13:13" ht="12.5">
       <c r="M781" s="4"/>
     </row>
-    <row r="782" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="13:13" ht="12.5">
       <c r="M782" s="4"/>
     </row>
-    <row r="783" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="13:13" ht="12.5">
       <c r="M783" s="4"/>
     </row>
-    <row r="784" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="13:13" ht="12.5">
       <c r="M784" s="4"/>
     </row>
-    <row r="785" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="13:13" ht="12.5">
       <c r="M785" s="4"/>
     </row>
-    <row r="786" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="13:13" ht="12.5">
       <c r="M786" s="4"/>
     </row>
-    <row r="787" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="13:13" ht="12.5">
       <c r="M787" s="4"/>
     </row>
-    <row r="788" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="13:13" ht="12.5">
       <c r="M788" s="4"/>
     </row>
-    <row r="789" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="13:13" ht="12.5">
       <c r="M789" s="4"/>
     </row>
-    <row r="790" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="13:13" ht="12.5">
       <c r="M790" s="4"/>
     </row>
-    <row r="791" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="13:13" ht="12.5">
       <c r="M791" s="4"/>
     </row>
-    <row r="792" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="13:13" ht="12.5">
       <c r="M792" s="4"/>
     </row>
-    <row r="793" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="13:13" ht="12.5">
       <c r="M793" s="4"/>
     </row>
-    <row r="794" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="13:13" ht="12.5">
       <c r="M794" s="4"/>
     </row>
-    <row r="795" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="13:13" ht="12.5">
       <c r="M795" s="4"/>
     </row>
-    <row r="796" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="13:13" ht="12.5">
       <c r="M796" s="4"/>
     </row>
-    <row r="797" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="13:13" ht="12.5">
       <c r="M797" s="4"/>
     </row>
-    <row r="798" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="13:13" ht="12.5">
       <c r="M798" s="4"/>
     </row>
-    <row r="799" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="13:13" ht="12.5">
       <c r="M799" s="4"/>
     </row>
-    <row r="800" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="13:13" ht="12.5">
       <c r="M800" s="4"/>
     </row>
-    <row r="801" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="13:13" ht="12.5">
       <c r="M801" s="4"/>
     </row>
-    <row r="802" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="13:13" ht="12.5">
       <c r="M802" s="4"/>
     </row>
-    <row r="803" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="13:13" ht="12.5">
       <c r="M803" s="4"/>
     </row>
-    <row r="804" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="13:13" ht="12.5">
       <c r="M804" s="4"/>
     </row>
-    <row r="805" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="13:13" ht="12.5">
       <c r="M805" s="4"/>
     </row>
-    <row r="806" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="13:13" ht="12.5">
       <c r="M806" s="4"/>
     </row>
-    <row r="807" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="13:13" ht="12.5">
       <c r="M807" s="4"/>
     </row>
-    <row r="808" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="13:13" ht="12.5">
       <c r="M808" s="4"/>
     </row>
-    <row r="809" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="13:13" ht="12.5">
       <c r="M809" s="4"/>
     </row>
-    <row r="810" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="13:13" ht="12.5">
       <c r="M810" s="4"/>
     </row>
-    <row r="811" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="13:13" ht="12.5">
       <c r="M811" s="4"/>
     </row>
-    <row r="812" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="13:13" ht="12.5">
       <c r="M812" s="4"/>
     </row>
-    <row r="813" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="13:13" ht="12.5">
       <c r="M813" s="4"/>
     </row>
-    <row r="814" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="13:13" ht="12.5">
       <c r="M814" s="4"/>
     </row>
-    <row r="815" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="13:13" ht="12.5">
       <c r="M815" s="4"/>
     </row>
-    <row r="816" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="13:13" ht="12.5">
       <c r="M816" s="4"/>
     </row>
-    <row r="817" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="13:13" ht="12.5">
       <c r="M817" s="4"/>
     </row>
-    <row r="818" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="13:13" ht="12.5">
       <c r="M818" s="4"/>
     </row>
-    <row r="819" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="13:13" ht="12.5">
       <c r="M819" s="4"/>
     </row>
-    <row r="820" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="13:13" ht="12.5">
       <c r="M820" s="4"/>
     </row>
-    <row r="821" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="13:13" ht="12.5">
       <c r="M821" s="4"/>
     </row>
-    <row r="822" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="13:13" ht="12.5">
       <c r="M822" s="4"/>
     </row>
-    <row r="823" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="13:13" ht="12.5">
       <c r="M823" s="4"/>
     </row>
-    <row r="824" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="13:13" ht="12.5">
       <c r="M824" s="4"/>
     </row>
-    <row r="825" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="13:13" ht="12.5">
       <c r="M825" s="4"/>
     </row>
-    <row r="826" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="13:13" ht="12.5">
       <c r="M826" s="4"/>
     </row>
-    <row r="827" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="13:13" ht="12.5">
       <c r="M827" s="4"/>
     </row>
-    <row r="828" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="13:13" ht="12.5">
       <c r="M828" s="4"/>
     </row>
-    <row r="829" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="13:13" ht="12.5">
       <c r="M829" s="4"/>
     </row>
-    <row r="830" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="13:13" ht="12.5">
       <c r="M830" s="4"/>
     </row>
-    <row r="831" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="13:13" ht="12.5">
       <c r="M831" s="4"/>
     </row>
-    <row r="832" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="13:13" ht="12.5">
       <c r="M832" s="4"/>
     </row>
-    <row r="833" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="13:13" ht="12.5">
       <c r="M833" s="4"/>
     </row>
-    <row r="834" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="13:13" ht="12.5">
       <c r="M834" s="4"/>
     </row>
-    <row r="835" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="13:13" ht="12.5">
       <c r="M835" s="4"/>
     </row>
-    <row r="836" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="13:13" ht="12.5">
       <c r="M836" s="4"/>
     </row>
-    <row r="837" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="13:13" ht="12.5">
       <c r="M837" s="4"/>
     </row>
-    <row r="838" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="13:13" ht="12.5">
       <c r="M838" s="4"/>
     </row>
-    <row r="839" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="13:13" ht="12.5">
       <c r="M839" s="4"/>
     </row>
-    <row r="840" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="13:13" ht="12.5">
       <c r="M840" s="4"/>
     </row>
-    <row r="841" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="13:13" ht="12.5">
       <c r="M841" s="4"/>
     </row>
-    <row r="842" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="13:13" ht="12.5">
       <c r="M842" s="4"/>
     </row>
-    <row r="843" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="13:13" ht="12.5">
       <c r="M843" s="4"/>
     </row>
-    <row r="844" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="13:13" ht="12.5">
       <c r="M844" s="4"/>
     </row>
-    <row r="845" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="13:13" ht="12.5">
       <c r="M845" s="4"/>
     </row>
-    <row r="846" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="13:13" ht="12.5">
       <c r="M846" s="4"/>
     </row>
-    <row r="847" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="13:13" ht="12.5">
       <c r="M847" s="4"/>
     </row>
-    <row r="848" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="13:13" ht="12.5">
       <c r="M848" s="4"/>
     </row>
-    <row r="849" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="13:13" ht="12.5">
       <c r="M849" s="4"/>
     </row>
-    <row r="850" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="13:13" ht="12.5">
       <c r="M850" s="4"/>
     </row>
-    <row r="851" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="13:13" ht="12.5">
       <c r="M851" s="4"/>
     </row>
-    <row r="852" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="13:13" ht="12.5">
       <c r="M852" s="4"/>
     </row>
-    <row r="853" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="13:13" ht="12.5">
       <c r="M853" s="4"/>
     </row>
-    <row r="854" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="13:13" ht="12.5">
       <c r="M854" s="4"/>
     </row>
-    <row r="855" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="13:13" ht="12.5">
       <c r="M855" s="4"/>
     </row>
-    <row r="856" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="13:13" ht="12.5">
       <c r="M856" s="4"/>
     </row>
-    <row r="857" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="13:13" ht="12.5">
       <c r="M857" s="4"/>
     </row>
-    <row r="858" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="13:13" ht="12.5">
       <c r="M858" s="4"/>
     </row>
-    <row r="859" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="13:13" ht="12.5">
       <c r="M859" s="4"/>
     </row>
-    <row r="860" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="13:13" ht="12.5">
       <c r="M860" s="4"/>
     </row>
-    <row r="861" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="13:13" ht="12.5">
       <c r="M861" s="4"/>
     </row>
-    <row r="862" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="13:13" ht="12.5">
       <c r="M862" s="4"/>
     </row>
-    <row r="863" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="13:13" ht="12.5">
       <c r="M863" s="4"/>
     </row>
-    <row r="864" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="13:13" ht="12.5">
       <c r="M864" s="4"/>
     </row>
-    <row r="865" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="13:13" ht="12.5">
       <c r="M865" s="4"/>
     </row>
-    <row r="866" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="13:13" ht="12.5">
       <c r="M866" s="4"/>
     </row>
-    <row r="867" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="13:13" ht="12.5">
       <c r="M867" s="4"/>
     </row>
-    <row r="868" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="13:13" ht="12.5">
       <c r="M868" s="4"/>
     </row>
-    <row r="869" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="13:13" ht="12.5">
       <c r="M869" s="4"/>
     </row>
-    <row r="870" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="13:13" ht="12.5">
       <c r="M870" s="4"/>
     </row>
-    <row r="871" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="13:13" ht="12.5">
       <c r="M871" s="4"/>
     </row>
-    <row r="872" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="13:13" ht="12.5">
       <c r="M872" s="4"/>
     </row>
-    <row r="873" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="13:13" ht="12.5">
       <c r="M873" s="4"/>
     </row>
-    <row r="874" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="13:13" ht="12.5">
       <c r="M874" s="4"/>
     </row>
-    <row r="875" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="13:13" ht="12.5">
       <c r="M875" s="4"/>
     </row>
-    <row r="876" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="13:13" ht="12.5">
       <c r="M876" s="4"/>
     </row>
-    <row r="877" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="13:13" ht="12.5">
       <c r="M877" s="4"/>
     </row>
-    <row r="878" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="13:13" ht="12.5">
       <c r="M878" s="4"/>
     </row>
-    <row r="879" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="13:13" ht="12.5">
       <c r="M879" s="4"/>
     </row>
-    <row r="880" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="13:13" ht="12.5">
       <c r="M880" s="4"/>
     </row>
-    <row r="881" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="13:13" ht="12.5">
       <c r="M881" s="4"/>
     </row>
-    <row r="882" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="13:13" ht="12.5">
       <c r="M882" s="4"/>
     </row>
-    <row r="883" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="13:13" ht="12.5">
       <c r="M883" s="4"/>
     </row>
-    <row r="884" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="13:13" ht="12.5">
       <c r="M884" s="4"/>
     </row>
-    <row r="885" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="13:13" ht="12.5">
       <c r="M885" s="4"/>
     </row>
-    <row r="886" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="13:13" ht="12.5">
       <c r="M886" s="4"/>
     </row>
-    <row r="887" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="13:13" ht="12.5">
       <c r="M887" s="4"/>
     </row>
-    <row r="888" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="13:13" ht="12.5">
       <c r="M888" s="4"/>
     </row>
-    <row r="889" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="13:13" ht="12.5">
       <c r="M889" s="4"/>
     </row>
-    <row r="890" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="13:13" ht="12.5">
       <c r="M890" s="4"/>
     </row>
-    <row r="891" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="13:13" ht="12.5">
       <c r="M891" s="4"/>
     </row>
-    <row r="892" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="13:13" ht="12.5">
       <c r="M892" s="4"/>
     </row>
-    <row r="893" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="13:13" ht="12.5">
       <c r="M893" s="4"/>
     </row>
-    <row r="894" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="13:13" ht="12.5">
       <c r="M894" s="4"/>
     </row>
-    <row r="895" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="13:13" ht="12.5">
       <c r="M895" s="4"/>
     </row>
-    <row r="896" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="13:13" ht="12.5">
       <c r="M896" s="4"/>
     </row>
-    <row r="897" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="13:13" ht="12.5">
       <c r="M897" s="4"/>
     </row>
-    <row r="898" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="13:13" ht="12.5">
       <c r="M898" s="4"/>
     </row>
-    <row r="899" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="13:13" ht="12.5">
       <c r="M899" s="4"/>
     </row>
-    <row r="900" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="13:13" ht="12.5">
       <c r="M900" s="4"/>
     </row>
-    <row r="901" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="13:13" ht="12.5">
       <c r="M901" s="4"/>
     </row>
-    <row r="902" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="13:13" ht="12.5">
       <c r="M902" s="4"/>
     </row>
-    <row r="903" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="13:13" ht="12.5">
       <c r="M903" s="4"/>
     </row>
-    <row r="904" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="13:13" ht="12.5">
       <c r="M904" s="4"/>
     </row>
-    <row r="905" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="13:13" ht="12.5">
       <c r="M905" s="4"/>
     </row>
-    <row r="906" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="13:13" ht="12.5">
       <c r="M906" s="4"/>
     </row>
-    <row r="907" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="13:13" ht="12.5">
       <c r="M907" s="4"/>
     </row>
-    <row r="908" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="13:13" ht="12.5">
       <c r="M908" s="4"/>
     </row>
-    <row r="909" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="13:13" ht="12.5">
       <c r="M909" s="4"/>
     </row>
-    <row r="910" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="13:13" ht="12.5">
       <c r="M910" s="4"/>
     </row>
-    <row r="911" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="13:13" ht="12.5">
       <c r="M911" s="4"/>
     </row>
-    <row r="912" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="13:13" ht="12.5">
       <c r="M912" s="4"/>
     </row>
-    <row r="913" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="13:13" ht="12.5">
       <c r="M913" s="4"/>
     </row>
-    <row r="914" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="13:13" ht="12.5">
       <c r="M914" s="4"/>
     </row>
-    <row r="915" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="13:13" ht="12.5">
       <c r="M915" s="4"/>
     </row>
-    <row r="916" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="13:13" ht="12.5">
       <c r="M916" s="4"/>
     </row>
-    <row r="917" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="13:13" ht="12.5">
       <c r="M917" s="4"/>
     </row>
-    <row r="918" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="13:13" ht="12.5">
       <c r="M918" s="4"/>
     </row>
-    <row r="919" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="13:13" ht="12.5">
       <c r="M919" s="4"/>
     </row>
-    <row r="920" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="13:13" ht="12.5">
       <c r="M920" s="4"/>
     </row>
-    <row r="921" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="13:13" ht="12.5">
       <c r="M921" s="4"/>
     </row>
-    <row r="922" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="13:13" ht="12.5">
       <c r="M922" s="4"/>
     </row>
-    <row r="923" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="13:13" ht="12.5">
       <c r="M923" s="4"/>
     </row>
-    <row r="924" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="13:13" ht="12.5">
       <c r="M924" s="4"/>
     </row>
-    <row r="925" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="13:13" ht="12.5">
       <c r="M925" s="4"/>
     </row>
-    <row r="926" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="13:13" ht="12.5">
       <c r="M926" s="4"/>
     </row>
-    <row r="927" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="13:13" ht="12.5">
       <c r="M927" s="4"/>
     </row>
-    <row r="928" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="13:13" ht="12.5">
       <c r="M928" s="4"/>
     </row>
-    <row r="929" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="13:13" ht="12.5">
       <c r="M929" s="4"/>
     </row>
-    <row r="930" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="13:13" ht="12.5">
       <c r="M930" s="4"/>
     </row>
-    <row r="931" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="13:13" ht="12.5">
       <c r="M931" s="4"/>
     </row>
-    <row r="932" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="13:13" ht="12.5">
       <c r="M932" s="4"/>
     </row>
-    <row r="933" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="13:13" ht="12.5">
       <c r="M933" s="4"/>
     </row>
-    <row r="934" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="13:13" ht="12.5">
       <c r="M934" s="4"/>
     </row>
-    <row r="935" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="13:13" ht="12.5">
       <c r="M935" s="4"/>
     </row>
-    <row r="936" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="13:13" ht="12.5">
       <c r="M936" s="4"/>
     </row>
-    <row r="937" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="13:13" ht="12.5">
       <c r="M937" s="4"/>
     </row>
-    <row r="938" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="13:13" ht="12.5">
       <c r="M938" s="4"/>
     </row>
-    <row r="939" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="13:13" ht="12.5">
       <c r="M939" s="4"/>
     </row>
-    <row r="940" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="13:13" ht="12.5">
       <c r="M940" s="4"/>
     </row>
-    <row r="941" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="13:13" ht="12.5">
       <c r="M941" s="4"/>
     </row>
-    <row r="942" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="13:13" ht="12.5">
       <c r="M942" s="4"/>
     </row>
-    <row r="943" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="13:13" ht="12.5">
       <c r="M943" s="4"/>
     </row>
-    <row r="944" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="13:13" ht="12.5">
       <c r="M944" s="4"/>
     </row>
-    <row r="945" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="13:13" ht="12.5">
       <c r="M945" s="4"/>
     </row>
-    <row r="946" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="13:13" ht="12.5">
       <c r="M946" s="4"/>
     </row>
-    <row r="947" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="13:13" ht="12.5">
       <c r="M947" s="4"/>
     </row>
-    <row r="948" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="13:13" ht="12.5">
       <c r="M948" s="4"/>
     </row>
-    <row r="949" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="13:13" ht="12.5">
       <c r="M949" s="4"/>
     </row>
-    <row r="950" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="13:13" ht="12.5">
       <c r="M950" s="4"/>
     </row>
-    <row r="951" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="13:13" ht="12.5">
       <c r="M951" s="4"/>
     </row>
-    <row r="952" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="13:13" ht="12.5">
       <c r="M952" s="4"/>
     </row>
-    <row r="953" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="13:13" ht="12.5">
       <c r="M953" s="4"/>
     </row>
-    <row r="954" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="13:13" ht="12.5">
       <c r="M954" s="4"/>
     </row>
-    <row r="955" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="13:13" ht="12.5">
       <c r="M955" s="4"/>
     </row>
-    <row r="956" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="13:13" ht="12.5">
       <c r="M956" s="4"/>
     </row>
-    <row r="957" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="13:13" ht="12.5">
       <c r="M957" s="4"/>
     </row>
-    <row r="958" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="13:13" ht="12.5">
       <c r="M958" s="4"/>
     </row>
-    <row r="959" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="13:13" ht="12.5">
       <c r="M959" s="4"/>
     </row>
-    <row r="960" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="13:13" ht="12.5">
       <c r="M960" s="4"/>
     </row>
-    <row r="961" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="13:13" ht="12.5">
       <c r="M961" s="4"/>
     </row>
-    <row r="962" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="13:13" ht="12.5">
       <c r="M962" s="4"/>
     </row>
-    <row r="963" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="13:13" ht="12.5">
       <c r="M963" s="4"/>
     </row>
-    <row r="964" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="13:13" ht="12.5">
       <c r="M964" s="4"/>
     </row>
-    <row r="965" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="13:13" ht="12.5">
       <c r="M965" s="4"/>
     </row>
-    <row r="966" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="13:13" ht="12.5">
       <c r="M966" s="4"/>
     </row>
-    <row r="967" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="13:13" ht="12.5">
       <c r="M967" s="4"/>
     </row>
-    <row r="968" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="13:13" ht="12.5">
       <c r="M968" s="4"/>
     </row>
-    <row r="969" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="13:13" ht="12.5">
       <c r="M969" s="4"/>
     </row>
-    <row r="970" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="13:13" ht="12.5">
       <c r="M970" s="4"/>
     </row>
-    <row r="971" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="13:13" ht="12.5">
       <c r="M971" s="4"/>
     </row>
-    <row r="972" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="13:13" ht="12.5">
       <c r="M972" s="4"/>
     </row>
-    <row r="973" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="13:13" ht="12.5">
       <c r="M973" s="4"/>
     </row>
-    <row r="974" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="13:13" ht="12.5">
       <c r="M974" s="4"/>
     </row>
-    <row r="975" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="13:13" ht="12.5">
       <c r="M975" s="4"/>
     </row>
-    <row r="976" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="13:13" ht="12.5">
       <c r="M976" s="4"/>
     </row>
-    <row r="977" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="13:13" ht="12.5">
       <c r="M977" s="4"/>
     </row>
-    <row r="978" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="13:13" ht="12.5">
       <c r="M978" s="4"/>
     </row>
-    <row r="979" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="13:13" ht="12.5">
       <c r="M979" s="4"/>
     </row>
-    <row r="980" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="13:13" ht="12.5">
       <c r="M980" s="4"/>
     </row>
-    <row r="981" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="13:13" ht="12.5">
       <c r="M981" s="4"/>
     </row>
-    <row r="982" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="13:13" ht="12.5">
       <c r="M982" s="4"/>
     </row>
-    <row r="983" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="13:13" ht="12.5">
       <c r="M983" s="4"/>
     </row>
-    <row r="984" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="13:13" ht="12.5">
       <c r="M984" s="4"/>
     </row>
-    <row r="985" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="13:13" ht="12.5">
       <c r="M985" s="4"/>
     </row>
-    <row r="986" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="13:13" ht="12.5">
       <c r="M986" s="4"/>
     </row>
-    <row r="987" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="13:13" ht="12.5">
       <c r="M987" s="4"/>
     </row>
-    <row r="988" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="13:13" ht="12.5">
       <c r="M988" s="4"/>
     </row>
-    <row r="989" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="13:13" ht="12.5">
       <c r="M989" s="4"/>
     </row>
-    <row r="990" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="13:13" ht="12.5">
       <c r="M990" s="4"/>
     </row>
-    <row r="991" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="13:13" ht="12.5">
       <c r="M991" s="4"/>
     </row>
-    <row r="992" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="13:13" ht="12.5">
       <c r="M992" s="4"/>
     </row>
-    <row r="993" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="13:13" ht="12.5">
       <c r="M993" s="4"/>
     </row>
-    <row r="994" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="13:13" ht="12.5">
       <c r="M994" s="4"/>
     </row>
-    <row r="995" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="13:13" ht="12.5">
       <c r="M995" s="4"/>
     </row>
-    <row r="996" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="13:13" ht="12.5">
       <c r="M996" s="4"/>
     </row>
-    <row r="997" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="13:13" ht="12.5">
       <c r="M997" s="4"/>
     </row>
-    <row r="998" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="13:13" ht="12.5">
       <c r="M998" s="4"/>
     </row>
-    <row r="999" spans="13:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="13:13" ht="12.5">
       <c r="M999" s="4"/>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{9C52BEA2-AFBA-4FAF-829E-91AB01D5DF7D}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:Y501" xr:uid="{05257967-DC5C-48AF-9DF8-2715A97BCBB0}"/>
+    </customSheetView>
     <customSheetView guid="{1B53F630-166C-43E3-9B02-86FF9A2D6E8E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:Y501" xr:uid="{ECB86338-DA7E-4924-BBE4-FC8D2CC3B971}"/>
-    </customSheetView>
-    <customSheetView guid="{9C52BEA2-AFBA-4FAF-829E-91AB01D5DF7D}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:Y501" xr:uid="{370E62F2-1AA9-4142-91B1-A4A4D4B80422}"/>
+      <autoFilter ref="A1:Y501" xr:uid="{3C2AF4C1-0398-4904-840D-8B06ED422EB2}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="4"/>
@@ -35734,30 +35731,30 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3920</v>
+        <v>3931</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>3921</v>
+        <v>3932</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>3922</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -35771,7 +35768,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -35785,7 +35782,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -35799,7 +35796,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -35813,7 +35810,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -35827,7 +35824,7 @@
         <v>3902</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -35841,7 +35838,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -35855,7 +35852,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -35869,7 +35866,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -35883,7 +35880,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -35897,7 +35894,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -35911,7 +35908,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -35925,7 +35922,7 @@
         <v>3902</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -35939,7 +35936,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -35953,7 +35950,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -35967,7 +35964,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -35981,7 +35978,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -35995,7 +35992,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -36009,7 +36006,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -36023,7 +36020,7 @@
         <v>3902</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -36037,7 +36034,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -36051,7 +36048,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -36065,7 +36062,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -36079,7 +36076,7 @@
         <v>3902</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -36093,7 +36090,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -36107,7 +36104,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -36121,7 +36118,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -36135,7 +36132,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -36149,7 +36146,7 @@
         <v>3902</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -36163,7 +36160,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
